--- a/resources/excelFiles/Data.xlsx
+++ b/resources/excelFiles/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>TC_ID</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>USERNAME</t>
+  </si>
+  <si>
+    <t>loginWithValidCredentialsViral</t>
   </si>
 </sst>
 </file>
@@ -125,10 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,12 +487,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -505,6 +519,9 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/excelFiles/Data.xlsx
+++ b/resources/excelFiles/Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>TC_ID</t>
   </si>
@@ -63,13 +63,16 @@
     <t>USERNAME</t>
   </si>
   <si>
-    <t>loginWithValidCredentialsViral</t>
+    <t>loginWithInvalidCredentials</t>
+  </si>
+  <si>
+    <t>mercur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,6 +148,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -192,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,7 +445,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
